--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_015_SyntheticQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_015_SyntheticQuotes.xlsx
@@ -14,9 +14,6 @@
     <sheet name="6M" sheetId="15" r:id="rId5"/>
     <sheet name="1Y" sheetId="16" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Currency</t>
   </si>
@@ -146,6 +143,9 @@
   <si>
     <t>USD</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +159,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -719,22 +719,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1031,7 +1015,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="6" customWidth="1"/>
@@ -1043,13 +1027,13 @@
     <col min="8" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="56" t="s">
         <v>9</v>
@@ -1058,14 +1042,14 @@
       <c r="D2" s="57"/>
       <c r="E2" s="58"/>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="13" t="s">
@@ -1074,7 +1058,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13" t="s">
@@ -1085,7 +1069,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
       <c r="C6" s="13" t="s">
@@ -1096,7 +1080,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
@@ -1107,19 +1091,18 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="13" t="s">
@@ -1130,15 +1113,15 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="56" t="s">
         <v>19</v>
       </c>
@@ -1146,13 +1129,13 @@
       <c r="D12" s="57"/>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="13" t="s">
         <v>0</v>
@@ -1162,7 +1145,7 @@
       </c>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="13" t="s">
         <v>12</v>
@@ -1172,7 +1155,7 @@
       </c>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="13" t="s">
         <v>13</v>
@@ -1182,7 +1165,7 @@
       </c>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="2:5" ht="12" thickBot="1">
+    <row r="17" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1214,7 +1197,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="21" bestFit="1" customWidth="1"/>
@@ -1225,7 +1208,7 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>1</v>
@@ -1237,24 +1220,24 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="49"/>
       <c r="C2" s="36" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>USD_015_SyntheticQuotesON.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D4,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="50" t="s">
         <v>21</v>
@@ -1273,7 +1256,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="55" t="s">
         <v>22</v>
@@ -1292,7 +1275,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="12" thickBot="1">
+    <row r="5" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1317,7 +1300,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="21" bestFit="1" customWidth="1"/>
@@ -1328,7 +1311,7 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>1</v>
@@ -1341,24 +1324,24 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="49"/>
       <c r="C2" s="36" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>USD_015_SyntheticQuotes1M.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>9</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="51" t="s">
         <v>25</v>
@@ -1377,7 +1360,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="51" t="s">
         <v>26</v>
@@ -1396,7 +1379,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="51" t="s">
         <v>16</v>
@@ -1415,7 +1398,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="51" t="s">
         <v>20</v>
@@ -1434,7 +1417,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="51" t="s">
         <v>17</v>
@@ -1453,7 +1436,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="51" t="s">
         <v>18</v>
@@ -1472,7 +1455,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>1</v>
@@ -1491,7 +1474,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="50" t="s">
         <v>21</v>
@@ -1510,7 +1493,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="55" t="s">
         <v>22</v>
@@ -1529,7 +1512,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="12" thickBot="1">
+    <row r="12" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1554,7 +1537,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="21" bestFit="1" customWidth="1"/>
@@ -1565,7 +1548,7 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>3</v>
@@ -1578,24 +1561,24 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="35"/>
       <c r="C2" s="36" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>USD_015_SyntheticQuotes3M.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="51" t="s">
         <v>25</v>
@@ -1614,7 +1597,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="51" t="s">
         <v>26</v>
@@ -1633,7 +1616,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="52" t="s">
         <v>16</v>
@@ -1652,7 +1635,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="52" t="s">
         <v>20</v>
@@ -1671,7 +1654,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="52" t="s">
         <v>17</v>
@@ -1690,7 +1673,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="52" t="s">
         <v>18</v>
@@ -1709,7 +1692,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>1</v>
@@ -1728,7 +1711,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="52" t="s">
         <v>2</v>
@@ -1747,7 +1730,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="52" t="s">
         <v>3</v>
@@ -1766,7 +1749,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="54" t="s">
         <v>21</v>
@@ -1785,7 +1768,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="53" t="s">
         <v>22</v>
@@ -1804,7 +1787,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="12" thickBot="1">
+    <row r="14" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1829,7 +1812,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" style="21" bestFit="1" customWidth="1"/>
@@ -1840,7 +1823,7 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>6</v>
@@ -1853,24 +1836,24 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="49"/>
       <c r="C2" s="36" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>USD_015_SyntheticQuotes6M.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D16,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>14</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="50" t="s">
         <v>25</v>
@@ -1889,7 +1872,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="51" t="s">
         <v>26</v>
@@ -1908,7 +1891,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="52" t="s">
         <v>16</v>
@@ -1927,7 +1910,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="52" t="s">
         <v>20</v>
@@ -1946,7 +1929,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="52" t="s">
         <v>17</v>
@@ -1965,7 +1948,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="52" t="s">
         <v>18</v>
@@ -1984,7 +1967,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>1</v>
@@ -2003,7 +1986,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="52" t="s">
         <v>2</v>
@@ -2022,7 +2005,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="52" t="s">
         <v>3</v>
@@ -2041,7 +2024,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="52" t="s">
         <v>4</v>
@@ -2060,7 +2043,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="52" t="s">
         <v>5</v>
@@ -2079,7 +2062,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="53" t="s">
         <v>23</v>
@@ -2098,7 +2081,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="52" t="s">
         <v>21</v>
@@ -2117,7 +2100,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="53" t="s">
         <v>22</v>
@@ -2136,7 +2119,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="12" thickBot="1">
+    <row r="17" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2161,7 +2144,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="21" bestFit="1" customWidth="1"/>
@@ -2172,7 +2155,7 @@
     <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23">
         <v>12</v>
@@ -2185,24 +2168,24 @@
       <c r="E1" s="23"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="35"/>
       <c r="C2" s="36" t="str">
         <f>Currency&amp;"_015_SyntheticQuotes"&amp;Tenor&amp;".xml"</f>
         <v>USD_015_SyntheticQuotes1Y.xml</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="39" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>62</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
         <v/>
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="51" t="s">
         <v>25</v>
@@ -2221,7 +2204,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="51" t="s">
         <v>26</v>
@@ -2240,7 +2223,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="52" t="s">
         <v>16</v>
@@ -2259,7 +2242,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="52" t="s">
         <v>20</v>
@@ -2278,7 +2261,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="52" t="s">
         <v>17</v>
@@ -2297,7 +2280,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="52" t="s">
         <v>18</v>
@@ -2316,7 +2299,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="52" t="s">
         <v>1</v>
@@ -2335,7 +2318,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="52" t="s">
         <v>2</v>
@@ -2354,7 +2337,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="52" t="s">
         <v>3</v>
@@ -2373,7 +2356,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="52" t="s">
         <v>4</v>
@@ -2392,7 +2375,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="52" t="s">
         <v>5</v>
@@ -2411,7 +2394,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="52" t="s">
         <v>23</v>
@@ -2430,7 +2413,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="52" t="s">
         <v>28</v>
@@ -2449,7 +2432,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="52" t="s">
         <v>29</v>
@@ -2468,7 +2451,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="52" t="s">
         <v>24</v>
@@ -2487,7 +2470,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="52" t="s">
         <v>30</v>
@@ -2506,7 +2489,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="52" t="s">
         <v>31</v>
@@ -2525,7 +2508,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="53" t="s">
         <v>27</v>
@@ -2544,7 +2527,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2566,7 +2549,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2588,7 +2571,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -2610,7 +2593,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -2632,7 +2615,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -2654,7 +2637,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -2676,7 +2659,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -2698,7 +2681,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -2720,7 +2703,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>9</v>
       </c>
@@ -2742,7 +2725,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -2764,7 +2747,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>11</v>
       </c>
@@ -2786,7 +2769,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>13</v>
       </c>
@@ -2808,7 +2791,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>14</v>
       </c>
@@ -2830,7 +2813,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>15</v>
       </c>
@@ -2852,7 +2835,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>16</v>
       </c>
@@ -2874,7 +2857,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>17</v>
       </c>
@@ -2896,7 +2879,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>18</v>
       </c>
@@ -2918,7 +2901,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>19</v>
       </c>
@@ -2940,7 +2923,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>20</v>
       </c>
@@ -2962,7 +2945,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>21</v>
       </c>
@@ -2984,7 +2967,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>22</v>
       </c>
@@ -3006,7 +2989,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>23</v>
       </c>
@@ -3028,7 +3011,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>25</v>
       </c>
@@ -3050,7 +3033,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>26</v>
       </c>
@@ -3072,7 +3055,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>27</v>
       </c>
@@ -3094,7 +3077,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>28</v>
       </c>
@@ -3116,7 +3099,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>29</v>
       </c>
@@ -3138,7 +3121,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>30</v>
       </c>
@@ -3160,7 +3143,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>31</v>
       </c>
@@ -3182,7 +3165,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>32</v>
       </c>
@@ -3204,7 +3187,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>33</v>
       </c>
@@ -3226,7 +3209,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>34</v>
       </c>
@@ -3248,7 +3231,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>35</v>
       </c>
@@ -3270,7 +3253,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>37</v>
       </c>
@@ -3292,7 +3275,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>38</v>
       </c>
@@ -3314,7 +3297,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>39</v>
       </c>
@@ -3336,7 +3319,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>40</v>
       </c>
@@ -3358,7 +3341,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>41</v>
       </c>
@@ -3380,7 +3363,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42</v>
       </c>
@@ -3402,7 +3385,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43</v>
       </c>
@@ -3424,7 +3407,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44</v>
       </c>
@@ -3446,7 +3429,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45</v>
       </c>
@@ -3468,7 +3451,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>46</v>
       </c>
@@ -3490,7 +3473,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>47</v>
       </c>
@@ -3512,7 +3495,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="12" thickBot="1">
+    <row r="65" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_015_SyntheticQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/USD_015_SyntheticQuotes.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Currency</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1097,8 +1094,9 @@
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>34</v>
+      <c r="D8" s="16" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1228,12 +1226,12 @@
         <v>USD_015_SyntheticQuotesON.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D4,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D4,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1332,12 +1330,12 @@
         <v>USD_015_SyntheticQuotes1M.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D11,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1569,12 +1567,12 @@
         <v>USD_015_SyntheticQuotes3M.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D13,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -1844,12 +1842,12 @@
         <v>USD_015_SyntheticQuotes6M.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D16,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D16,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -2176,12 +2174,12 @@
         <v>USD_015_SyntheticQuotes1Y.xml</v>
       </c>
       <c r="D2" s="39" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D64,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="2"/>
     </row>
